--- a/Corte de Apelaciones de Arica/1-2013301#2#1-C-ingresos-2018-1.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013301#2#1-C-ingresos-2018-1.xlsx
@@ -127,10 +127,10 @@
     <t>Perpetua Memoria, Información</t>
   </si>
   <si>
+    <t>Indemnización Perjuicios Art.9 Ley 18.287</t>
+  </si>
+  <si>
     <t>Demarcación, Procedimiento De</t>
-  </si>
-  <si>
-    <t>Indemnización Perjuicios Art.9 Ley 18.287</t>
   </si>
   <si>
     <t>Reivindicación</t>
